--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\TheOtherRoles-GM-3.5.5.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B77E7C-E3CA-4FDD-A036-109067ED1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC79FA-07B2-4264-887C-AD3084C5EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -9571,9 +9571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q887"/>
   <sheetViews>
-    <sheetView topLeftCell="A684" workbookViewId="0">
-      <selection activeCell="A684" sqref="A684"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -18421,8 +18419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC79FA-07B2-4264-887C-AD3084C5EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3AD424-C692-41FE-AD62-FA39852087CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="2831">
   <si>
     <t>presetSelection</t>
   </si>
@@ -9190,12 +9190,69 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>evilHacker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Evil Hacker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イビルハッカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>evilHackerIntroDesc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アドミンとバイタルを駆使して状況を把握しよう</t>
+    <rPh sb="10" eb="12">
+      <t>クシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>evilHackerShortDesc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>evilHackerFullDesc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・アドミンとバイタルの情報を確認できる
+・アドミンとバイタルの情報を確認中は移動できない</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9224,8 +9281,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9234,7 +9298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9252,7 +9322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -9287,7 +9357,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F08437EE-8AD5-4F22-8D4B-E3E3403CA172}"/>
@@ -9295,6 +9366,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9569,14 +9645,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q887"/>
+  <dimension ref="A1:Q891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="A712" sqref="A712"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="3" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="58.625" customWidth="1"/>
     <col min="15" max="15" width="58.625" style="4" customWidth="1"/>
   </cols>
@@ -16246,7 +16325,7 @@
       <c r="O699"/>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A700" s="20" t="s">
+      <c r="A700" s="21" t="s">
         <v>2783</v>
       </c>
       <c r="B700" t="s">
@@ -16354,869 +16433,809 @@
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A711" t="s">
-        <v>1239</v>
+      <c r="A711" s="20" t="s">
+        <v>2823</v>
       </c>
       <c r="B711" t="s">
-        <v>1240</v>
-      </c>
-      <c r="M711" t="s">
-        <v>1241</v>
-      </c>
-      <c r="O711" s="9" t="s">
-        <v>2419</v>
+        <v>2824</v>
+      </c>
+      <c r="M711" s="4" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="712" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A712" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M712" s="4" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="713" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A713" t="s">
+        <v>2828</v>
+      </c>
+      <c r="M713" s="4" t="s">
+        <v>2827</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M715" t="s">
+        <v>1241</v>
+      </c>
+      <c r="O715" s="9" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="719" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A719" t="s">
         <v>374</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B719" t="s">
         <v>562</v>
       </c>
-      <c r="M715" t="s">
+      <c r="M719" t="s">
         <v>375</v>
       </c>
-      <c r="O715" s="9" t="s">
+      <c r="O719" s="9" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A716" t="s">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A720" t="s">
         <v>376</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B720" t="s">
         <v>563</v>
       </c>
-      <c r="M716" t="s">
+      <c r="M720" t="s">
         <v>377</v>
       </c>
-      <c r="O716" s="9" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A717" t="s">
-        <v>378</v>
-      </c>
-      <c r="B717" t="s">
-        <v>563</v>
-      </c>
-      <c r="M717" t="s">
-        <v>377</v>
-      </c>
-      <c r="O717" s="9" t="s">
+      <c r="O720" s="9" t="s">
         <v>2421</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
+        <v>378</v>
+      </c>
+      <c r="B721" t="s">
+        <v>563</v>
+      </c>
+      <c r="M721" t="s">
+        <v>377</v>
+      </c>
+      <c r="O721" s="9" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="725" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A725" t="s">
         <v>379</v>
       </c>
-      <c r="B721" t="s">
+      <c r="B725" t="s">
         <v>564</v>
       </c>
-      <c r="M721" t="s">
+      <c r="M725" t="s">
         <v>617</v>
       </c>
-      <c r="O721" s="9" t="s">
+      <c r="O725" s="9" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A722" t="s">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A726" t="s">
         <v>380</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B726" t="s">
         <v>565</v>
       </c>
-      <c r="M722" t="s">
+      <c r="M726" t="s">
         <v>381</v>
       </c>
-      <c r="O722" s="9" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A723" t="s">
-        <v>382</v>
-      </c>
-      <c r="B723" t="s">
-        <v>565</v>
-      </c>
-      <c r="M723" t="s">
-        <v>381</v>
-      </c>
-      <c r="O723" s="9" t="s">
+      <c r="O726" s="9" t="s">
         <v>2423</v>
       </c>
     </row>
     <row r="727" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
-        <v>1346</v>
+        <v>382</v>
       </c>
       <c r="B727" t="s">
-        <v>1349</v>
+        <v>565</v>
       </c>
       <c r="M727" t="s">
-        <v>1352</v>
+        <v>381</v>
       </c>
       <c r="O727" s="9" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A728" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B728" t="s">
-        <v>1350</v>
-      </c>
-      <c r="M728" t="s">
-        <v>1353</v>
-      </c>
-      <c r="O728" s="9" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A729" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B729" t="s">
-        <v>1351</v>
-      </c>
-      <c r="M729" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O729" s="9" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
-        <v>100</v>
+        <v>1346</v>
       </c>
       <c r="B731" t="s">
-        <v>1008</v>
+        <v>1349</v>
       </c>
       <c r="M731" t="s">
-        <v>674</v>
+        <v>1352</v>
       </c>
       <c r="O731" s="9" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
-        <v>101</v>
+        <v>1347</v>
       </c>
       <c r="B732" t="s">
-        <v>1009</v>
+        <v>1350</v>
       </c>
       <c r="M732" t="s">
-        <v>675</v>
+        <v>1353</v>
       </c>
       <c r="O732" s="9" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
-        <v>102</v>
+        <v>1348</v>
       </c>
       <c r="B733" t="s">
-        <v>512</v>
+        <v>1351</v>
       </c>
       <c r="M733" t="s">
-        <v>211</v>
+        <v>1354</v>
       </c>
       <c r="O733" s="9" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A734" t="s">
-        <v>103</v>
-      </c>
-      <c r="B734" t="s">
-        <v>513</v>
-      </c>
-      <c r="M734" t="s">
-        <v>212</v>
-      </c>
-      <c r="O734" s="9" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
-        <v>965</v>
+        <v>100</v>
       </c>
       <c r="B735" t="s">
-        <v>967</v>
+        <v>1008</v>
       </c>
       <c r="M735" t="s">
-        <v>966</v>
+        <v>674</v>
       </c>
       <c r="O735" s="9" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="736" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
-        <v>1392</v>
+        <v>101</v>
       </c>
       <c r="B736" t="s">
-        <v>1393</v>
+        <v>1009</v>
       </c>
       <c r="M736" t="s">
-        <v>1394</v>
+        <v>675</v>
       </c>
       <c r="O736" s="9" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
-        <v>1827</v>
+        <v>102</v>
       </c>
       <c r="B737" t="s">
-        <v>1826</v>
+        <v>512</v>
       </c>
       <c r="M737" t="s">
-        <v>1825</v>
+        <v>211</v>
       </c>
       <c r="O737" s="9" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="738" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
-        <v>2053</v>
+        <v>103</v>
       </c>
       <c r="B738" t="s">
-        <v>2051</v>
+        <v>513</v>
       </c>
       <c r="M738" t="s">
-        <v>2052</v>
-      </c>
-      <c r="O738" s="10" t="s">
-        <v>2736</v>
+        <v>212</v>
+      </c>
+      <c r="O738" s="9" t="s">
+        <v>2430</v>
       </c>
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
-        <v>2780</v>
+        <v>965</v>
       </c>
       <c r="B739" t="s">
-        <v>2781</v>
+        <v>967</v>
       </c>
       <c r="M739" t="s">
-        <v>2782</v>
-      </c>
-      <c r="O739" s="17"/>
+        <v>966</v>
+      </c>
+      <c r="O739" s="9" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="740" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A740" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M740" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O740" s="9" t="s">
+        <v>2432</v>
+      </c>
     </row>
     <row r="741" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
-        <v>865</v>
+        <v>1827</v>
       </c>
       <c r="B741" t="s">
-        <v>868</v>
+        <v>1826</v>
       </c>
       <c r="M741" t="s">
-        <v>871</v>
+        <v>1825</v>
       </c>
       <c r="O741" s="9" t="s">
-        <v>2737</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="742" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
-        <v>866</v>
+        <v>2053</v>
       </c>
       <c r="B742" t="s">
-        <v>869</v>
+        <v>2051</v>
       </c>
       <c r="M742" t="s">
-        <v>884</v>
-      </c>
-      <c r="O742" s="9" t="s">
-        <v>2434</v>
+        <v>2052</v>
+      </c>
+      <c r="O742" s="10" t="s">
+        <v>2736</v>
       </c>
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
-        <v>867</v>
+        <v>2780</v>
       </c>
       <c r="B743" t="s">
-        <v>870</v>
+        <v>2781</v>
       </c>
       <c r="M743" t="s">
-        <v>885</v>
-      </c>
-      <c r="O743" s="9" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A744" t="s">
-        <v>626</v>
-      </c>
-      <c r="B744" t="s">
-        <v>872</v>
-      </c>
-      <c r="M744" t="s">
-        <v>875</v>
-      </c>
-      <c r="O744" s="9" t="s">
-        <v>2436</v>
-      </c>
+        <v>2782</v>
+      </c>
+      <c r="O743" s="17"/>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
-        <v>628</v>
+        <v>865</v>
       </c>
       <c r="B745" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="M745" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="O745" s="9" t="s">
-        <v>2437</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="746" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
-        <v>627</v>
+        <v>866</v>
       </c>
       <c r="B746" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="M746" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="O746" s="9" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O747" s="9"/>
+      <c r="A747" t="s">
+        <v>867</v>
+      </c>
+      <c r="B747" t="s">
+        <v>870</v>
+      </c>
+      <c r="M747" t="s">
+        <v>885</v>
+      </c>
+      <c r="O747" s="9" t="s">
+        <v>2435</v>
+      </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
-        <v>878</v>
+        <v>626</v>
       </c>
       <c r="B748" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="M748" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="O748" s="9" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="749" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
-        <v>881</v>
+        <v>628</v>
       </c>
       <c r="B749" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="M749" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="O749" s="9" t="s">
-        <v>2440</v>
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="750" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A750" t="s">
+        <v>627</v>
+      </c>
+      <c r="B750" t="s">
+        <v>874</v>
+      </c>
+      <c r="M750" t="s">
+        <v>877</v>
+      </c>
+      <c r="O750" s="9" t="s">
+        <v>2438</v>
       </c>
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A751" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1093</v>
-      </c>
-      <c r="M751" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O751" s="9" t="s">
-        <v>2441</v>
-      </c>
+      <c r="O751" s="9"/>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
-        <v>1080</v>
+        <v>878</v>
       </c>
       <c r="B752" t="s">
-        <v>1082</v>
+        <v>879</v>
       </c>
       <c r="M752" t="s">
-        <v>1084</v>
+        <v>880</v>
       </c>
       <c r="O752" s="9" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="753" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
-        <v>1081</v>
+        <v>881</v>
       </c>
       <c r="B753" t="s">
-        <v>1083</v>
+        <v>882</v>
       </c>
       <c r="M753" t="s">
-        <v>1085</v>
+        <v>883</v>
       </c>
       <c r="O753" s="9" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A754" t="s">
-        <v>629</v>
-      </c>
-      <c r="B754" t="s">
-        <v>625</v>
-      </c>
-      <c r="M754" t="s">
-        <v>630</v>
-      </c>
-      <c r="O754" s="9" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
-        <v>1520</v>
+        <v>1092</v>
       </c>
       <c r="B755" t="s">
-        <v>1521</v>
+        <v>1093</v>
       </c>
       <c r="M755" t="s">
-        <v>1522</v>
+        <v>1094</v>
       </c>
       <c r="O755" s="9" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
-        <v>1838</v>
+        <v>1080</v>
       </c>
       <c r="B756" t="s">
-        <v>1843</v>
+        <v>1082</v>
       </c>
       <c r="M756" t="s">
-        <v>1848</v>
+        <v>1084</v>
       </c>
       <c r="O756" s="9" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="757" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
-        <v>1839</v>
+        <v>1081</v>
       </c>
       <c r="B757" t="s">
-        <v>1844</v>
+        <v>1083</v>
       </c>
       <c r="M757" t="s">
-        <v>1849</v>
+        <v>1085</v>
       </c>
       <c r="O757" s="9" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
-        <v>1840</v>
+        <v>629</v>
       </c>
       <c r="B758" t="s">
-        <v>1845</v>
+        <v>625</v>
       </c>
       <c r="M758" t="s">
-        <v>1850</v>
+        <v>630</v>
       </c>
       <c r="O758" s="9" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="759" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
-        <v>1841</v>
+        <v>1520</v>
       </c>
       <c r="B759" t="s">
-        <v>1846</v>
+        <v>1521</v>
       </c>
       <c r="M759" t="s">
-        <v>1851</v>
+        <v>1522</v>
       </c>
       <c r="O759" s="9" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="760" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="B760" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="M760" t="s">
-        <v>2664</v>
+        <v>1848</v>
       </c>
       <c r="O760" s="9" t="s">
-        <v>2450</v>
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="761" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A761" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M761" t="s">
+        <v>1849</v>
+      </c>
+      <c r="O761" s="9" t="s">
+        <v>2447</v>
       </c>
     </row>
     <row r="762" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
-        <v>1683</v>
+        <v>1840</v>
       </c>
       <c r="B762" t="s">
-        <v>1684</v>
+        <v>1845</v>
       </c>
       <c r="M762" t="s">
-        <v>1685</v>
+        <v>1850</v>
       </c>
       <c r="O762" s="9" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="763" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
-        <v>2058</v>
+        <v>1841</v>
       </c>
       <c r="B763" t="s">
-        <v>2057</v>
+        <v>1846</v>
       </c>
       <c r="M763" t="s">
-        <v>2056</v>
-      </c>
-      <c r="O763" s="10" t="s">
-        <v>2738</v>
+        <v>1851</v>
+      </c>
+      <c r="O763" s="9" t="s">
+        <v>2449</v>
       </c>
     </row>
     <row r="764" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
-        <v>2055</v>
+        <v>1842</v>
       </c>
       <c r="B764" t="s">
-        <v>2054</v>
+        <v>1847</v>
       </c>
       <c r="M764" t="s">
-        <v>657</v>
-      </c>
-      <c r="O764" s="10" t="s">
-        <v>2739</v>
+        <v>2664</v>
+      </c>
+      <c r="O764" s="9" t="s">
+        <v>2450</v>
       </c>
     </row>
     <row r="766" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
-        <v>1877</v>
+        <v>1683</v>
       </c>
       <c r="B766" t="s">
-        <v>1871</v>
+        <v>1684</v>
       </c>
       <c r="M766" t="s">
-        <v>1872</v>
-      </c>
-      <c r="O766" s="12" t="s">
-        <v>2701</v>
+        <v>1685</v>
+      </c>
+      <c r="O766" s="9" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="767" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
-        <v>1878</v>
+        <v>2058</v>
       </c>
       <c r="B767" t="s">
-        <v>1873</v>
+        <v>2057</v>
       </c>
       <c r="M767" t="s">
-        <v>1874</v>
-      </c>
-      <c r="O767" s="12" t="s">
-        <v>2702</v>
+        <v>2056</v>
+      </c>
+      <c r="O767" s="10" t="s">
+        <v>2738</v>
       </c>
     </row>
     <row r="768" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
-        <v>1879</v>
+        <v>2055</v>
       </c>
       <c r="B768" t="s">
-        <v>1875</v>
+        <v>2054</v>
       </c>
       <c r="M768" t="s">
-        <v>1876</v>
-      </c>
-      <c r="O768" s="12" t="s">
-        <v>2703</v>
+        <v>657</v>
+      </c>
+      <c r="O768" s="10" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A770" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M770" t="s">
+        <v>1872</v>
+      </c>
+      <c r="O770" s="12" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A771" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1873</v>
+      </c>
+      <c r="M771" t="s">
+        <v>1874</v>
+      </c>
+      <c r="O771" s="12" t="s">
+        <v>2702</v>
       </c>
     </row>
     <row r="772" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
-        <v>213</v>
+        <v>1879</v>
       </c>
       <c r="B772" t="s">
-        <v>514</v>
+        <v>1875</v>
       </c>
       <c r="M772" t="s">
-        <v>215</v>
-      </c>
-      <c r="O772" s="9" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A773" t="s">
-        <v>214</v>
-      </c>
-      <c r="B773" t="s">
-        <v>515</v>
-      </c>
-      <c r="M773" t="s">
-        <v>216</v>
-      </c>
-      <c r="O773" s="9" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A775" t="s">
-        <v>217</v>
-      </c>
-      <c r="B775" t="s">
-        <v>516</v>
-      </c>
-      <c r="M775" t="s">
-        <v>1465</v>
-      </c>
-      <c r="O775" s="9" t="s">
-        <v>2454</v>
+        <v>1876</v>
+      </c>
+      <c r="O772" s="12" t="s">
+        <v>2703</v>
       </c>
     </row>
     <row r="776" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B776" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M776" t="s">
-        <v>1466</v>
+        <v>215</v>
       </c>
       <c r="O776" s="9" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="777" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B777" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M777" t="s">
-        <v>1467</v>
+        <v>216</v>
       </c>
       <c r="O777" s="9" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="779" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B779" t="s">
-        <v>221</v>
+        <v>516</v>
       </c>
       <c r="M779" t="s">
-        <v>673</v>
+        <v>1465</v>
       </c>
       <c r="O779" s="9" t="s">
-        <v>2457</v>
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A780" t="s">
+        <v>218</v>
+      </c>
+      <c r="B780" t="s">
+        <v>517</v>
+      </c>
+      <c r="M780" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O780" s="9" t="s">
+        <v>2455</v>
       </c>
     </row>
     <row r="781" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
-        <v>1250</v>
+        <v>219</v>
       </c>
       <c r="B781" t="s">
-        <v>1251</v>
+        <v>518</v>
       </c>
       <c r="M781" t="s">
-        <v>1252</v>
+        <v>1467</v>
       </c>
       <c r="O781" s="9" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="B783" t="s">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="M783" t="s">
-        <v>1568</v>
+        <v>673</v>
       </c>
       <c r="O783" s="9" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A784" t="s">
-        <v>395</v>
-      </c>
-      <c r="B784" t="s">
-        <v>587</v>
-      </c>
-      <c r="M784" t="s">
-        <v>1569</v>
-      </c>
-      <c r="O784" s="9" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="785" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
-        <v>396</v>
+        <v>1250</v>
       </c>
       <c r="B785" t="s">
-        <v>588</v>
+        <v>1251</v>
       </c>
       <c r="M785" t="s">
-        <v>1570</v>
+        <v>1252</v>
       </c>
       <c r="O785" s="9" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A786" t="s">
-        <v>397</v>
-      </c>
-      <c r="B786" t="s">
-        <v>589</v>
-      </c>
-      <c r="M786" t="s">
-        <v>1571</v>
-      </c>
-      <c r="O786" s="9" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
-        <v>1578</v>
+        <v>394</v>
       </c>
       <c r="B787" t="s">
-        <v>1579</v>
+        <v>586</v>
       </c>
       <c r="M787" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="O787" s="9" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="788" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
-        <v>398</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C788" s="1"/>
-      <c r="D788" s="1"/>
-      <c r="E788" s="1"/>
-      <c r="F788" s="1"/>
-      <c r="G788" s="1"/>
-      <c r="H788" s="1"/>
-      <c r="I788" s="1"/>
-      <c r="J788" s="1"/>
-      <c r="K788" s="1"/>
-      <c r="L788" s="1"/>
-      <c r="M788" s="1" t="s">
-        <v>1468</v>
+        <v>395</v>
+      </c>
+      <c r="B788" t="s">
+        <v>587</v>
+      </c>
+      <c r="M788" t="s">
+        <v>1569</v>
       </c>
       <c r="O788" s="9" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C789" s="1"/>
-      <c r="D789" s="1"/>
-      <c r="E789" s="1"/>
-      <c r="F789" s="1"/>
-      <c r="G789" s="1"/>
-      <c r="H789" s="1"/>
-      <c r="I789" s="1"/>
-      <c r="J789" s="1"/>
-      <c r="K789" s="1"/>
-      <c r="L789" s="1"/>
-      <c r="M789" s="1" t="s">
-        <v>2662</v>
+        <v>396</v>
+      </c>
+      <c r="B789" t="s">
+        <v>588</v>
+      </c>
+      <c r="M789" t="s">
+        <v>1570</v>
       </c>
       <c r="O789" s="9" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C790" s="1"/>
-      <c r="D790" s="1"/>
-      <c r="E790" s="1"/>
-      <c r="F790" s="1"/>
-      <c r="G790" s="1"/>
-      <c r="H790" s="1"/>
-      <c r="I790" s="1"/>
-      <c r="J790" s="1"/>
-      <c r="K790" s="1"/>
-      <c r="L790" s="1"/>
-      <c r="M790" s="1" t="s">
-        <v>2663</v>
+        <v>397</v>
+      </c>
+      <c r="B790" t="s">
+        <v>589</v>
+      </c>
+      <c r="M790" t="s">
+        <v>1571</v>
       </c>
       <c r="O790" s="9" t="s">
-        <v>2740</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B791" s="1"/>
-      <c r="C791" s="1"/>
-      <c r="D791" s="1"/>
-      <c r="E791" s="1"/>
-      <c r="F791" s="1"/>
-      <c r="G791" s="1"/>
-      <c r="H791" s="1"/>
-      <c r="I791" s="1"/>
-      <c r="J791" s="1"/>
-      <c r="K791" s="1"/>
-      <c r="L791" s="1"/>
-      <c r="M791" s="1"/>
-      <c r="O791" s="8"/>
+      <c r="A791" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M791" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O791" s="9" t="s">
+        <v>2463</v>
+      </c>
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
-        <v>1566</v>
+        <v>398</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -17229,18 +17248,18 @@
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
       <c r="M792" s="1" t="s">
-        <v>1572</v>
+        <v>1468</v>
       </c>
       <c r="O792" s="9" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="793" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
-        <v>1567</v>
+        <v>1869</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1574</v>
+        <v>1870</v>
       </c>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -17253,612 +17272,603 @@
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
       <c r="M793" s="1" t="s">
-        <v>1572</v>
+        <v>2662</v>
       </c>
       <c r="O793" s="9" t="s">
-        <v>2467</v>
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="794" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A794" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C794" s="1"/>
+      <c r="D794" s="1"/>
+      <c r="E794" s="1"/>
+      <c r="F794" s="1"/>
+      <c r="G794" s="1"/>
+      <c r="H794" s="1"/>
+      <c r="I794" s="1"/>
+      <c r="J794" s="1"/>
+      <c r="K794" s="1"/>
+      <c r="L794" s="1"/>
+      <c r="M794" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="O794" s="9" t="s">
+        <v>2740</v>
       </c>
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A795" t="s">
-        <v>405</v>
-      </c>
-      <c r="B795" t="s">
-        <v>399</v>
-      </c>
-      <c r="M795" t="s">
-        <v>399</v>
-      </c>
-      <c r="O795" s="9" t="s">
-        <v>2468</v>
-      </c>
+      <c r="B795" s="1"/>
+      <c r="C795" s="1"/>
+      <c r="D795" s="1"/>
+      <c r="E795" s="1"/>
+      <c r="F795" s="1"/>
+      <c r="G795" s="1"/>
+      <c r="H795" s="1"/>
+      <c r="I795" s="1"/>
+      <c r="J795" s="1"/>
+      <c r="K795" s="1"/>
+      <c r="L795" s="1"/>
+      <c r="M795" s="1"/>
+      <c r="O795" s="8"/>
     </row>
     <row r="796" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
-        <v>735</v>
-      </c>
-      <c r="B796" t="s">
-        <v>737</v>
-      </c>
-      <c r="M796" t="s">
-        <v>739</v>
+        <v>1566</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C796" s="1"/>
+      <c r="D796" s="1"/>
+      <c r="E796" s="1"/>
+      <c r="F796" s="1"/>
+      <c r="G796" s="1"/>
+      <c r="H796" s="1"/>
+      <c r="I796" s="1"/>
+      <c r="J796" s="1"/>
+      <c r="K796" s="1"/>
+      <c r="L796" s="1"/>
+      <c r="M796" s="1" t="s">
+        <v>1572</v>
       </c>
       <c r="O796" s="9" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="797" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
-        <v>736</v>
-      </c>
-      <c r="B797" t="s">
-        <v>738</v>
-      </c>
-      <c r="M797" t="s">
-        <v>740</v>
+        <v>1567</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C797" s="1"/>
+      <c r="D797" s="1"/>
+      <c r="E797" s="1"/>
+      <c r="F797" s="1"/>
+      <c r="G797" s="1"/>
+      <c r="H797" s="1"/>
+      <c r="I797" s="1"/>
+      <c r="J797" s="1"/>
+      <c r="K797" s="1"/>
+      <c r="L797" s="1"/>
+      <c r="M797" s="1" t="s">
+        <v>1572</v>
       </c>
       <c r="O797" s="9" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A798" t="s">
-        <v>410</v>
-      </c>
-      <c r="B798" t="s">
-        <v>434</v>
-      </c>
-      <c r="M798" t="s">
-        <v>400</v>
-      </c>
-      <c r="O798" s="9" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="799" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B799" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="M799" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O799" s="9" t="s">
-        <v>2191</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="800" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
-        <v>407</v>
+        <v>735</v>
       </c>
       <c r="B800" t="s">
-        <v>436</v>
+        <v>737</v>
       </c>
       <c r="M800" t="s">
-        <v>402</v>
+        <v>739</v>
       </c>
       <c r="O800" s="9" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
-        <v>408</v>
+        <v>736</v>
       </c>
       <c r="B801" t="s">
-        <v>437</v>
+        <v>738</v>
       </c>
       <c r="M801" t="s">
-        <v>403</v>
+        <v>740</v>
       </c>
       <c r="O801" s="9" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="802" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B802" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M802" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O802" s="9" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="803" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
-        <v>1056</v>
+        <v>406</v>
       </c>
       <c r="B803" t="s">
-        <v>1057</v>
+        <v>435</v>
       </c>
       <c r="M803" t="s">
-        <v>1059</v>
+        <v>401</v>
       </c>
       <c r="O803" s="9" t="s">
-        <v>2475</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="804" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
-        <v>1549</v>
+        <v>407</v>
       </c>
       <c r="B804" t="s">
-        <v>1550</v>
+        <v>436</v>
       </c>
       <c r="M804" t="s">
-        <v>1551</v>
+        <v>402</v>
       </c>
       <c r="O804" s="9" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="805" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
-        <v>1727</v>
+        <v>408</v>
       </c>
       <c r="B805" t="s">
-        <v>1731</v>
+        <v>437</v>
       </c>
       <c r="M805" t="s">
-        <v>1739</v>
+        <v>403</v>
       </c>
       <c r="O805" s="9" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="806" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
-        <v>1909</v>
+        <v>409</v>
       </c>
       <c r="B806" t="s">
-        <v>1908</v>
+        <v>438</v>
       </c>
       <c r="M806" t="s">
-        <v>1907</v>
-      </c>
-      <c r="O806" s="10" t="s">
-        <v>2741</v>
+        <v>404</v>
+      </c>
+      <c r="O806" s="9" t="s">
+        <v>2474</v>
       </c>
     </row>
     <row r="807" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
-        <v>2811</v>
+        <v>1056</v>
       </c>
       <c r="B807" t="s">
-        <v>2812</v>
+        <v>1057</v>
       </c>
       <c r="M807" t="s">
-        <v>2813</v>
+        <v>1059</v>
+      </c>
+      <c r="O807" s="9" t="s">
+        <v>2475</v>
       </c>
     </row>
     <row r="808" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
-        <v>1800</v>
+        <v>1549</v>
       </c>
       <c r="B808" t="s">
-        <v>1796</v>
+        <v>1550</v>
       </c>
       <c r="M808" t="s">
-        <v>1801</v>
+        <v>1551</v>
       </c>
       <c r="O808" s="9" t="s">
-        <v>2478</v>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="809" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A809" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1731</v>
+      </c>
+      <c r="M809" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O809" s="9" t="s">
+        <v>2477</v>
       </c>
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
-        <v>819</v>
+        <v>1909</v>
       </c>
       <c r="B810" t="s">
-        <v>826</v>
+        <v>1908</v>
       </c>
       <c r="M810" t="s">
-        <v>833</v>
-      </c>
-      <c r="O810" s="9" t="s">
-        <v>2479</v>
+        <v>1907</v>
+      </c>
+      <c r="O810" s="10" t="s">
+        <v>2741</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
-        <v>820</v>
+        <v>2811</v>
       </c>
       <c r="B811" t="s">
-        <v>827</v>
+        <v>2812</v>
       </c>
       <c r="M811" t="s">
-        <v>834</v>
-      </c>
-      <c r="O811" s="9" t="s">
-        <v>2480</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="812" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
-        <v>821</v>
+        <v>1800</v>
       </c>
       <c r="B812" t="s">
-        <v>828</v>
+        <v>1796</v>
       </c>
       <c r="M812" t="s">
-        <v>835</v>
+        <v>1801</v>
       </c>
       <c r="O812" s="9" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A813" t="s">
-        <v>822</v>
-      </c>
-      <c r="B813" t="s">
-        <v>829</v>
-      </c>
-      <c r="M813" t="s">
-        <v>836</v>
-      </c>
-      <c r="O813" s="9" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="814" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B814" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="M814" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="O814" s="9" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="815" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B815" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="M815" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="O815" s="9" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="816" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B816" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M816" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="O816" s="9" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="817" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
-        <v>1061</v>
+        <v>822</v>
       </c>
       <c r="B817" t="s">
-        <v>1058</v>
+        <v>829</v>
       </c>
       <c r="M817" t="s">
-        <v>1060</v>
+        <v>836</v>
       </c>
       <c r="O817" s="9" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="818" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
-        <v>1553</v>
+        <v>823</v>
       </c>
       <c r="B818" t="s">
-        <v>1554</v>
+        <v>830</v>
       </c>
       <c r="M818" t="s">
-        <v>1552</v>
+        <v>837</v>
       </c>
       <c r="O818" s="9" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="819" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
-        <v>1728</v>
+        <v>824</v>
       </c>
       <c r="B819" t="s">
-        <v>1729</v>
+        <v>831</v>
       </c>
       <c r="M819" t="s">
-        <v>1730</v>
+        <v>838</v>
       </c>
       <c r="O819" s="9" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="820" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
-        <v>1906</v>
+        <v>825</v>
       </c>
       <c r="B820" t="s">
-        <v>1905</v>
+        <v>832</v>
       </c>
       <c r="M820" t="s">
-        <v>1904</v>
-      </c>
-      <c r="O820" s="10" t="s">
-        <v>2742</v>
+        <v>839</v>
+      </c>
+      <c r="O820" s="9" t="s">
+        <v>2485</v>
       </c>
     </row>
     <row r="821" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
-        <v>2814</v>
+        <v>1061</v>
       </c>
       <c r="B821" t="s">
-        <v>2815</v>
+        <v>1058</v>
       </c>
       <c r="M821" t="s">
-        <v>2816</v>
+        <v>1060</v>
+      </c>
+      <c r="O821" s="9" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="822" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A822" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M822" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O822" s="9" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="823" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
-        <v>840</v>
+        <v>1728</v>
       </c>
       <c r="B823" t="s">
-        <v>1526</v>
+        <v>1729</v>
       </c>
       <c r="M823" t="s">
-        <v>1529</v>
+        <v>1730</v>
       </c>
       <c r="O823" s="9" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="824" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
-        <v>841</v>
+        <v>1906</v>
       </c>
       <c r="B824" t="s">
-        <v>1530</v>
+        <v>1905</v>
       </c>
       <c r="M824" t="s">
-        <v>1528</v>
-      </c>
-      <c r="O824" s="9" t="s">
-        <v>2490</v>
+        <v>1904</v>
+      </c>
+      <c r="O824" s="10" t="s">
+        <v>2742</v>
       </c>
     </row>
     <row r="825" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
-        <v>1489</v>
+        <v>2814</v>
       </c>
       <c r="B825" t="s">
-        <v>1531</v>
+        <v>2815</v>
       </c>
       <c r="M825" t="s">
-        <v>1532</v>
-      </c>
-      <c r="O825" s="9" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A826" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1492</v>
-      </c>
-      <c r="M826" t="s">
-        <v>1495</v>
-      </c>
-      <c r="O826" s="9" t="s">
-        <v>2492</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="827" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
-        <v>1490</v>
+        <v>840</v>
       </c>
       <c r="B827" t="s">
-        <v>1493</v>
+        <v>1526</v>
       </c>
       <c r="M827" t="s">
-        <v>1494</v>
+        <v>1529</v>
       </c>
       <c r="O827" s="9" t="s">
-        <v>2493</v>
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="828" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A828" t="s">
+        <v>841</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M828" t="s">
+        <v>1528</v>
+      </c>
+      <c r="O828" s="9" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="829" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A829" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M829" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O829" s="9" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="830" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A830" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M830" t="s">
+        <v>1495</v>
+      </c>
+      <c r="O830" s="9" t="s">
+        <v>2492</v>
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
-        <v>411</v>
+        <v>1490</v>
       </c>
       <c r="B831" t="s">
-        <v>439</v>
+        <v>1493</v>
       </c>
       <c r="M831" t="s">
-        <v>733</v>
+        <v>1494</v>
       </c>
       <c r="O831" s="9" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A832" t="s">
-        <v>412</v>
-      </c>
-      <c r="B832" t="s">
-        <v>415</v>
-      </c>
-      <c r="M832" t="s">
-        <v>432</v>
-      </c>
-      <c r="O832" s="9" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A833" t="s">
-        <v>413</v>
-      </c>
-      <c r="B833" t="s">
-        <v>414</v>
-      </c>
-      <c r="M833" t="s">
-        <v>433</v>
-      </c>
-      <c r="O833" s="9" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A834" t="s">
-        <v>845</v>
-      </c>
-      <c r="B834" t="s">
-        <v>846</v>
-      </c>
-      <c r="M834" t="s">
-        <v>847</v>
-      </c>
-      <c r="O834" s="9" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
-        <v>848</v>
+        <v>411</v>
       </c>
       <c r="B835" t="s">
-        <v>849</v>
+        <v>439</v>
       </c>
       <c r="M835" t="s">
-        <v>850</v>
+        <v>733</v>
       </c>
       <c r="O835" s="9" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
-        <v>851</v>
-      </c>
-      <c r="B836" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C836" s="3"/>
-      <c r="D836" s="3"/>
-      <c r="E836" s="3"/>
-      <c r="F836" s="3"/>
-      <c r="G836" s="3"/>
-      <c r="H836" s="3"/>
-      <c r="I836" s="3"/>
-      <c r="J836" s="3"/>
-      <c r="K836" s="3"/>
-      <c r="L836" s="3"/>
-      <c r="M836" s="2" t="s">
-        <v>853</v>
+        <v>412</v>
+      </c>
+      <c r="B836" t="s">
+        <v>415</v>
+      </c>
+      <c r="M836" t="s">
+        <v>432</v>
       </c>
       <c r="O836" s="9" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="837" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
-        <v>958</v>
-      </c>
-      <c r="B837" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C837" s="3"/>
-      <c r="D837" s="3"/>
-      <c r="E837" s="3"/>
-      <c r="F837" s="3"/>
-      <c r="G837" s="3"/>
-      <c r="H837" s="3"/>
-      <c r="I837" s="3"/>
-      <c r="J837" s="3"/>
-      <c r="K837" s="3"/>
-      <c r="L837" s="3"/>
-      <c r="M837" s="2" t="s">
-        <v>960</v>
+        <v>413</v>
+      </c>
+      <c r="B837" t="s">
+        <v>414</v>
+      </c>
+      <c r="M837" t="s">
+        <v>433</v>
       </c>
       <c r="O837" s="9" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B838" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C838" s="3"/>
-      <c r="D838" s="3"/>
-      <c r="E838" s="3"/>
-      <c r="F838" s="3"/>
-      <c r="G838" s="3"/>
-      <c r="H838" s="3"/>
-      <c r="I838" s="3"/>
-      <c r="J838" s="3"/>
-      <c r="K838" s="3"/>
-      <c r="L838" s="3"/>
-      <c r="M838" s="2" t="s">
-        <v>1291</v>
+        <v>845</v>
+      </c>
+      <c r="B838" t="s">
+        <v>846</v>
+      </c>
+      <c r="M838" t="s">
+        <v>847</v>
       </c>
       <c r="O838" s="9" t="s">
-        <v>2609</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="839" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B839" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C839" s="3"/>
-      <c r="D839" s="3"/>
-      <c r="E839" s="3"/>
-      <c r="F839" s="3"/>
-      <c r="G839" s="3"/>
-      <c r="H839" s="3"/>
-      <c r="I839" s="3"/>
-      <c r="J839" s="3"/>
-      <c r="K839" s="3"/>
-      <c r="L839" s="3"/>
-      <c r="M839" s="2" t="s">
-        <v>1564</v>
+        <v>848</v>
+      </c>
+      <c r="B839" t="s">
+        <v>849</v>
+      </c>
+      <c r="M839" t="s">
+        <v>850</v>
       </c>
       <c r="O839" s="9" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="840" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
-        <v>1767</v>
+        <v>851</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1768</v>
+        <v>852</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -17871,556 +17881,653 @@
       <c r="K840" s="3"/>
       <c r="L840" s="3"/>
       <c r="M840" s="2" t="s">
-        <v>1769</v>
+        <v>853</v>
       </c>
       <c r="O840" s="9" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
-        <v>1798</v>
+        <v>958</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1797</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="C841" s="3"/>
+      <c r="D841" s="3"/>
+      <c r="E841" s="3"/>
+      <c r="F841" s="3"/>
+      <c r="G841" s="3"/>
+      <c r="H841" s="3"/>
+      <c r="I841" s="3"/>
+      <c r="J841" s="3"/>
+      <c r="K841" s="3"/>
+      <c r="L841" s="3"/>
       <c r="M841" s="2" t="s">
-        <v>1799</v>
+        <v>960</v>
       </c>
       <c r="O841" s="9" t="s">
-        <v>1736</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="842" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B842" t="s">
-        <v>1920</v>
-      </c>
-      <c r="M842" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C842" s="3"/>
+      <c r="D842" s="3"/>
+      <c r="E842" s="3"/>
+      <c r="F842" s="3"/>
+      <c r="G842" s="3"/>
+      <c r="H842" s="3"/>
+      <c r="I842" s="3"/>
+      <c r="J842" s="3"/>
+      <c r="K842" s="3"/>
+      <c r="L842" s="3"/>
+      <c r="M842" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="O842" s="10" t="s">
-        <v>2743</v>
+      <c r="O842" s="9" t="s">
+        <v>2609</v>
       </c>
     </row>
     <row r="843" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B843" t="s">
-        <v>734</v>
-      </c>
-      <c r="M843" t="s">
-        <v>635</v>
+        <v>1562</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C843" s="3"/>
+      <c r="D843" s="3"/>
+      <c r="E843" s="3"/>
+      <c r="F843" s="3"/>
+      <c r="G843" s="3"/>
+      <c r="H843" s="3"/>
+      <c r="I843" s="3"/>
+      <c r="J843" s="3"/>
+      <c r="K843" s="3"/>
+      <c r="L843" s="3"/>
+      <c r="M843" s="2" t="s">
+        <v>1564</v>
       </c>
       <c r="O843" s="9" t="s">
-        <v>2503</v>
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A844" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C844" s="3"/>
+      <c r="D844" s="3"/>
+      <c r="E844" s="3"/>
+      <c r="F844" s="3"/>
+      <c r="G844" s="3"/>
+      <c r="H844" s="3"/>
+      <c r="I844" s="3"/>
+      <c r="J844" s="3"/>
+      <c r="K844" s="3"/>
+      <c r="L844" s="3"/>
+      <c r="M844" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="O844" s="9" t="s">
+        <v>2502</v>
       </c>
     </row>
     <row r="845" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
-        <v>1583</v>
+        <v>1798</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1581</v>
+        <v>1797</v>
       </c>
       <c r="M845" s="2" t="s">
-        <v>1582</v>
+        <v>1799</v>
       </c>
       <c r="O845" s="9" t="s">
-        <v>2504</v>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="846" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A846" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1920</v>
+      </c>
+      <c r="M846" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O846" s="10" t="s">
+        <v>2743</v>
       </c>
     </row>
     <row r="847" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
-        <v>420</v>
-      </c>
-      <c r="B847" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="M847" s="4" t="s">
-        <v>416</v>
+        <v>1584</v>
+      </c>
+      <c r="B847" t="s">
+        <v>734</v>
+      </c>
+      <c r="M847" t="s">
+        <v>635</v>
       </c>
       <c r="O847" s="9" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A848" t="s">
-        <v>421</v>
-      </c>
-      <c r="B848" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="M848" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="O848" s="9" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="849" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="M849" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O849" s="9" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="851" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A851" t="s">
+        <v>420</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="M851" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="O851" s="9" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="852" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A852" t="s">
+        <v>421</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="M852" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="O852" s="9" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="853" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A853" t="s">
         <v>422</v>
       </c>
-      <c r="B849" s="4" t="s">
+      <c r="B853" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="M849" s="4" t="s">
+      <c r="M853" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="O849" s="9" t="s">
+      <c r="O853" s="9" t="s">
         <v>2507</v>
-      </c>
-    </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A850" t="s">
-        <v>423</v>
-      </c>
-      <c r="B850" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="M850" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="O850" s="9" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="851" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A851" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B851" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="M851" s="4" t="s">
-        <v>1498</v>
-      </c>
-      <c r="O851" s="9" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="854" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
+        <v>423</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="M854" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O854" s="9" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="855" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A855" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M855" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="O855" s="9" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="858" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A858" t="s">
         <v>594</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B858" t="s">
         <v>425</v>
       </c>
-      <c r="M854" t="s">
+      <c r="M858" t="s">
         <v>429</v>
       </c>
-      <c r="O854" s="9" t="s">
+      <c r="O858" s="9" t="s">
         <v>2510</v>
-      </c>
-    </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A855" t="s">
-        <v>595</v>
-      </c>
-      <c r="B855" t="s">
-        <v>426</v>
-      </c>
-      <c r="M855" t="s">
-        <v>428</v>
-      </c>
-      <c r="O855" s="9" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A856" t="s">
-        <v>596</v>
-      </c>
-      <c r="B856" t="s">
-        <v>427</v>
-      </c>
-      <c r="M856" t="s">
-        <v>430</v>
-      </c>
-      <c r="O856" s="9" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A857" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B857" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M857" t="s">
-        <v>1524</v>
-      </c>
-      <c r="O857" s="9" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B859" t="s">
-        <v>633</v>
+        <v>426</v>
       </c>
       <c r="M859" t="s">
-        <v>634</v>
+        <v>428</v>
       </c>
       <c r="O859" s="9" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="860" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="B860" t="s">
-        <v>624</v>
+        <v>427</v>
       </c>
       <c r="M860" t="s">
-        <v>631</v>
+        <v>430</v>
       </c>
       <c r="O860" s="9" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A862" t="s">
-        <v>637</v>
-      </c>
-      <c r="B862" t="s">
-        <v>638</v>
-      </c>
-      <c r="M862" t="s">
-        <v>639</v>
-      </c>
-      <c r="O862" s="9" t="s">
-        <v>2516</v>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="861" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A861" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M861" t="s">
+        <v>1524</v>
+      </c>
+      <c r="O861" s="9" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A863" t="s">
+        <v>621</v>
+      </c>
+      <c r="B863" t="s">
+        <v>633</v>
+      </c>
+      <c r="M863" t="s">
+        <v>634</v>
+      </c>
+      <c r="O863" s="9" t="s">
+        <v>2514</v>
       </c>
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
-        <v>742</v>
+        <v>622</v>
       </c>
       <c r="B864" t="s">
-        <v>743</v>
+        <v>624</v>
       </c>
       <c r="M864" t="s">
-        <v>745</v>
+        <v>631</v>
       </c>
       <c r="O864" s="9" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A865" t="s">
-        <v>862</v>
-      </c>
-      <c r="B865" t="s">
-        <v>863</v>
-      </c>
-      <c r="M865" t="s">
-        <v>864</v>
-      </c>
-      <c r="O865" s="9" t="s">
-        <v>864</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="866" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
-        <v>746</v>
+        <v>637</v>
       </c>
       <c r="B866" t="s">
-        <v>744</v>
+        <v>638</v>
       </c>
       <c r="M866" t="s">
-        <v>748</v>
+        <v>639</v>
       </c>
       <c r="O866" s="9" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A867" t="s">
-        <v>749</v>
-      </c>
-      <c r="B867" t="s">
-        <v>744</v>
-      </c>
-      <c r="M867" t="s">
-        <v>750</v>
-      </c>
-      <c r="O867" s="9" t="s">
-        <v>2744</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A868" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B868" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M868" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="O868" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A869" t="s">
-        <v>1585</v>
+        <v>862</v>
       </c>
       <c r="B869" t="s">
-        <v>747</v>
+        <v>863</v>
       </c>
       <c r="M869" t="s">
-        <v>1586</v>
+        <v>864</v>
       </c>
       <c r="O869" s="9" t="s">
-        <v>2517</v>
+        <v>864</v>
       </c>
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
-        <v>1738</v>
+        <v>746</v>
       </c>
       <c r="B870" t="s">
-        <v>863</v>
+        <v>744</v>
       </c>
       <c r="M870" t="s">
-        <v>863</v>
+        <v>748</v>
       </c>
       <c r="O870" s="9" t="s">
-        <v>863</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
-        <v>1636</v>
+        <v>749</v>
       </c>
       <c r="B871" t="s">
         <v>744</v>
       </c>
       <c r="M871" t="s">
-        <v>1637</v>
+        <v>750</v>
       </c>
       <c r="O871" s="9" t="s">
-        <v>1637</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A872" t="s">
-        <v>1604</v>
+        <v>751</v>
       </c>
       <c r="B872" t="s">
-        <v>1605</v>
+        <v>747</v>
       </c>
       <c r="M872" t="s">
-        <v>1606</v>
+        <v>747</v>
       </c>
       <c r="O872" s="9" t="s">
-        <v>2745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="873" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
-        <v>1681</v>
+        <v>1585</v>
       </c>
       <c r="B873" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="M873" t="s">
-        <v>1682</v>
+        <v>1586</v>
       </c>
       <c r="O873" s="9" t="s">
-        <v>1682</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="874" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B874" s="5" t="s">
-        <v>1687</v>
+        <v>1738</v>
+      </c>
+      <c r="B874" t="s">
+        <v>863</v>
       </c>
       <c r="M874" t="s">
-        <v>1687</v>
+        <v>863</v>
       </c>
       <c r="O874" s="9" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="876" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="875" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A875" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B875" t="s">
+        <v>744</v>
+      </c>
+      <c r="M875" t="s">
+        <v>1637</v>
+      </c>
+      <c r="O875" s="9" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="876" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
-        <v>755</v>
-      </c>
-      <c r="B876" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M876" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="O876" s="11" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="877" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
+        <v>1604</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M876" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O876" s="9" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="877" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
-        <v>756</v>
-      </c>
-      <c r="B877" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="M877" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="O877" s="11" t="s">
-        <v>2519</v>
+        <v>1681</v>
+      </c>
+      <c r="B877" t="s">
+        <v>744</v>
+      </c>
+      <c r="M877" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O877" s="9" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B878" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M878" t="s">
+        <v>1687</v>
+      </c>
+      <c r="O878" s="9" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="880" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A880" t="s">
+        <v>755</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M880" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O880" s="11" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="881" spans="1:15" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A881" t="s">
+        <v>756</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M881" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="O881" s="11" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="882" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A882" t="s">
         <v>757</v>
       </c>
-      <c r="B878" t="s">
+      <c r="B882" t="s">
         <v>759</v>
       </c>
-      <c r="M878" t="s">
+      <c r="M882" t="s">
         <v>758</v>
       </c>
-      <c r="O878" s="9" t="s">
+      <c r="O882" s="9" t="s">
         <v>2520</v>
       </c>
     </row>
-    <row r="880" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A880" t="s">
+    <row r="884" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A884" t="s">
         <v>1077</v>
       </c>
-      <c r="B880" s="4" t="s">
+      <c r="B884" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="M880" s="4" t="s">
+      <c r="M884" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="O880" s="11" t="s">
+      <c r="O884" s="11" t="s">
         <v>2521</v>
       </c>
     </row>
-    <row r="881" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A881" t="s">
+    <row r="885" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A885" t="s">
         <v>1071</v>
       </c>
-      <c r="B881" s="4" t="s">
+      <c r="B885" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="M881" s="4" t="s">
+      <c r="M885" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="O881" s="11" t="s">
+      <c r="O885" s="11" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="882" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A882" t="s">
+    <row r="886" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A886" t="s">
         <v>1072</v>
       </c>
-      <c r="B882" s="4" t="s">
+      <c r="B886" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="M882" s="4" t="s">
+      <c r="M886" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="O882" s="11" t="s">
+      <c r="O886" s="11" t="s">
         <v>2523</v>
-      </c>
-    </row>
-    <row r="883" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A883" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B883" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="M883" t="s">
-        <v>1076</v>
-      </c>
-      <c r="O883" s="11" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="884" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A884" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B884" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="M884" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="O884" s="11" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="885" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A885" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B885" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="M885" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="O885" s="11" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="886" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A886" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B886" s="4" t="s">
-        <v>1831</v>
-      </c>
-      <c r="M886" s="4" t="s">
-        <v>1833</v>
-      </c>
-      <c r="O886" s="11" t="s">
-        <v>2527</v>
       </c>
     </row>
     <row r="887" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M887" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O887" s="11" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="888" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A888" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M888" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O888" s="11" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="889" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A889" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M889" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O889" s="11" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="890" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A890" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M890" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="O890" s="11" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="891" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A891" t="s">
         <v>1830</v>
       </c>
-      <c r="B887" s="4" t="s">
+      <c r="B891" s="4" t="s">
         <v>1829</v>
       </c>
-      <c r="M887" s="4" t="s">
+      <c r="M891" s="4" t="s">
         <v>1832</v>
       </c>
-      <c r="O887" s="11" t="s">
+      <c r="O891" s="11" t="s">
         <v>2528</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33E95B-9199-4E2D-AE11-F907336D1402}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -19130,11 +19237,19 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>2821</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>2822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="20" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>2830</v>
       </c>
     </row>
   </sheetData>
